--- a/Documentation/DAY 5 - TESTING, ERROR HANDLING, AND BACKEND INTEGRATION REFINEMENT/Testing_Report.xlsx
+++ b/Documentation/DAY 5 - TESTING, ERROR HANDLING, AND BACKEND INTEGRATION REFINEMENT/Testing_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VaultSneaks\Documentation\DAY 5 - TESTING, ERROR HANDLING, AND BACKEND INTEGRATION REFINEMENT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -280,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +349,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +435,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,6 +470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,14 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -690,7 +705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -716,7 +731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -742,7 +757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -768,7 +783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -794,7 +809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -820,7 +835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -846,7 +861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -872,7 +887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -898,7 +913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -921,7 +936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -944,7 +959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -967,7 +982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>

--- a/Documentation/DAY 5 - TESTING, ERROR HANDLING, AND BACKEND INTEGRATION REFINEMENT/Testing_Report.xlsx
+++ b/Documentation/DAY 5 - TESTING, ERROR HANDLING, AND BACKEND INTEGRATION REFINEMENT/Testing_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VaultSneaks\Documentation\DAY 5 - TESTING, ERROR HANDLING, AND BACKEND INTEGRATION REFINEMENT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -285,8 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,14 +344,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -403,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,10 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -705,7 +690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -731,7 +716,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -757,7 +742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -783,7 +768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -809,7 +794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -835,7 +820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -861,7 +846,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -887,7 +872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -913,7 +898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -936,7 +921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -959,7 +944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -982,7 +967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
